--- a/similarities/split_global/harmonic_similarity_timestamps_123.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['G', 'D', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['Ab', 'Eb', 'Bb/3', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:03:29.040000', '0:03:37.180000'), ('0:00:49.280000', '0:00:56.880000')]</t>
+          <t>('0:00:59.205240', '0:01:09.665829')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:25.942000', '0:00:30.393000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=209.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=59.20524</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:19.420000', '0:01:26.020000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:02:04.920000', '0:02:09.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:18.220000', '0:00:23.380000')]</t>
+          <t>('0:03:37.493000', '0:03:43.713000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=18.22']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:10.200000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:59.640000'), ('0:00:39.940000', '0:00:49.640000')]</t>
+          <t>('0:00:00.300000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.680000', '0:00:31.820000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:00:13.660000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=46.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=39.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:30.410000', '0:00:42.610000')]</t>
+          <t>('0:00:06.726778', '0:00:14.737663')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.650000', '0:00:08.920000')]</t>
+          <t>('0:00:55.580000', '0:01:06.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=30.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=5.65']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb', 'Bb'], ['Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>['F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A', 'E'], ['A', 'E', 'A', 'E']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.952000'), ('0:00:18.932000', '0:00:23.992000')]</t>
+          <t>('0:02:07.431000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:53.551034', '0:01:00.679560'), ('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:00:25.850181', '0:00:31.898979')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=53.551034', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=25.850181</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:25.460000', '0:01:31.620000')]</t>
+          <t>('0:00:45.970000', '0:00:52.390000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:06.090000', '0:00:09.538163')]</t>
+          <t>('0:00:09.910000', '0:00:14')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=85.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:25.260000', '0:00:52.580000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:55.860352', '0:01:03.046928')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:01:00.040000', '0:01:10.960000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:21.780000', '0:00:31.740000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:05.860000', '0:00:23.820000')]</t>
+          <t>('0:00:10.560000', '0:00:23.760000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:53', '0:01:02')]</t>
+          <t>('0:00:02.640000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=5.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=53.0']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G/3', 'A:min', 'C:maj'], ['A:min', 'C:maj', 'G:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'C'], ['A:min', 'C', 'G']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.033000', '0:00:13.822000'), ('0:00:30.116000', '0:00:33.079000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.723786', '0:00:14.097664'), ('0:00:09.999342', '0:00:15.409591')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=8.033', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=30.116']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=7.723786', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=9.999342']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:53.960000', '0:01:00.180000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=53.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A:dim7', 'A#:min', 'A:dim7'], ['F:7', 'A#:min', 'A:dim7', 'A#:min']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.300000', '0:00:24.660000'), ('0:00:17.920000', '0:00:23.340000')]</t>
+          <t>('0:00:40.450000', '0:00:45.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.540000', '0:00:07.840000'), ('0:01:15.720000', '0:01:26.060000')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=19.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=17.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=0.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=75.72']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
